--- a/investments.xlsx
+++ b/investments.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17927"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -35,16 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="60">
-  <si>
-    <t>C1</t>
-  </si>
-  <si>
-    <t>C2</t>
-  </si>
-  <si>
-    <t>C3</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="69">
   <si>
     <t>Sl.no</t>
   </si>
@@ -467,6 +458,42 @@
   </si>
   <si>
     <t>IND</t>
+  </si>
+  <si>
+    <t>C1-GBR</t>
+  </si>
+  <si>
+    <t>Others</t>
+  </si>
+  <si>
+    <t>Social..Finance..Analytics..Advertising</t>
+  </si>
+  <si>
+    <t>Cleantech...Semiconductors</t>
+  </si>
+  <si>
+    <t>C2-India</t>
+  </si>
+  <si>
+    <t>News..Search.and.Messaging</t>
+  </si>
+  <si>
+    <t>Flipkart</t>
+  </si>
+  <si>
+    <t>SoFi</t>
+  </si>
+  <si>
+    <t>CoreExpress</t>
+  </si>
+  <si>
+    <t>OneWeb</t>
+  </si>
+  <si>
+    <t>Liquid Telecom</t>
+  </si>
+  <si>
+    <t>C3-USA</t>
   </si>
 </sst>
 </file>
@@ -864,6 +891,30 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="10" fillId="6" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="10" fillId="8" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -875,30 +926,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="10" fillId="6" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="10" fillId="8" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1246,7 +1273,7 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1257,15 +1284,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="35" t="s">
-        <v>24</v>
-      </c>
-      <c r="B1" s="35"/>
+      <c r="A1" s="43" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="43"/>
       <c r="C1" s="19"/>
     </row>
     <row r="2" spans="1:3" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="35"/>
-      <c r="B2" s="35"/>
+      <c r="A2" s="43"/>
+      <c r="B2" s="43"/>
       <c r="C2" s="19"/>
     </row>
     <row r="3" spans="1:3" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1275,13 +1302,13 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -1289,9 +1316,9 @@
         <v>1</v>
       </c>
       <c r="B5" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="C5" s="39">
+        <v>22</v>
+      </c>
+      <c r="C5" s="35">
         <v>66368</v>
       </c>
     </row>
@@ -1300,9 +1327,9 @@
         <v>2</v>
       </c>
       <c r="B6" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="C6" s="39">
+        <v>23</v>
+      </c>
+      <c r="C6" s="35">
         <v>66368</v>
       </c>
     </row>
@@ -1311,10 +1338,10 @@
         <v>3</v>
       </c>
       <c r="B7" s="24" t="s">
-        <v>35</v>
-      </c>
-      <c r="C7" s="39" t="s">
-        <v>40</v>
+        <v>32</v>
+      </c>
+      <c r="C7" s="35" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1322,10 +1349,10 @@
         <v>4</v>
       </c>
       <c r="B8" s="24" t="s">
-        <v>36</v>
-      </c>
-      <c r="C8" s="39" t="s">
-        <v>41</v>
+        <v>33</v>
+      </c>
+      <c r="C8" s="35" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1333,9 +1360,9 @@
         <v>5</v>
       </c>
       <c r="B9" s="24" t="s">
-        <v>37</v>
-      </c>
-      <c r="C9" s="39">
+        <v>34</v>
+      </c>
+      <c r="C9" s="35">
         <v>114949</v>
       </c>
     </row>
@@ -1380,14 +1407,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="36" t="s">
-        <v>23</v>
-      </c>
-      <c r="B1" s="36"/>
+      <c r="A1" s="44" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="44"/>
     </row>
     <row r="2" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="36"/>
-      <c r="B2" s="36"/>
+      <c r="A2" s="44"/>
+      <c r="B2" s="44"/>
     </row>
     <row r="3" spans="1:3" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
@@ -1395,13 +1422,13 @@
     </row>
     <row r="4" spans="1:3" s="2" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -1409,7 +1436,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="23" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C5" s="32">
         <v>19990</v>
@@ -1420,7 +1447,7 @@
         <v>2</v>
       </c>
       <c r="B6" s="23" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C6" s="34">
         <v>0</v>
@@ -1463,14 +1490,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="37" t="s">
-        <v>27</v>
-      </c>
-      <c r="B1" s="37"/>
+      <c r="A1" s="45" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="45"/>
     </row>
     <row r="2" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="37"/>
-      <c r="B2" s="37"/>
+      <c r="A2" s="45"/>
+      <c r="B2" s="45"/>
     </row>
     <row r="3" spans="1:3" ht="6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="12"/>
@@ -1478,13 +1505,13 @@
     </row>
     <row r="4" spans="1:3" s="2" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1492,9 +1519,9 @@
         <v>1</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="C5" s="40">
+        <v>25</v>
+      </c>
+      <c r="C5" s="36">
         <v>10634054.4</v>
       </c>
     </row>
@@ -1503,9 +1530,9 @@
         <v>2</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="C6" s="40">
+        <v>26</v>
+      </c>
+      <c r="C6" s="36">
         <v>764564.3</v>
       </c>
     </row>
@@ -1514,9 +1541,9 @@
         <v>3</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="C7" s="40">
+        <v>27</v>
+      </c>
+      <c r="C7" s="36">
         <v>556606.69999999995</v>
       </c>
     </row>
@@ -1525,9 +1552,9 @@
         <v>4</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="C8" s="40">
+        <v>28</v>
+      </c>
+      <c r="C8" s="36">
         <v>62111788.200000003</v>
       </c>
     </row>
@@ -1536,10 +1563,10 @@
         <v>5</v>
       </c>
       <c r="B9" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="C9" s="40" t="s">
-        <v>56</v>
+        <v>29</v>
+      </c>
+      <c r="C9" s="36" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -1576,156 +1603,156 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="41">
+      <c r="A1" s="37">
         <v>1</v>
       </c>
-      <c r="B1" s="44" t="s">
-        <v>55</v>
-      </c>
-      <c r="C1" s="45">
+      <c r="B1" s="40" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1" s="41">
         <v>157161.4</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="42">
+      <c r="A2" s="38">
         <v>2</v>
       </c>
-      <c r="B2" s="43" t="s">
+      <c r="B2" s="39" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" s="42">
+        <v>202983.2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="38">
+        <v>3</v>
+      </c>
+      <c r="B3" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3" s="41">
+        <v>556606.69999999995</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="38">
+        <v>4</v>
+      </c>
+      <c r="B4" s="39" t="s">
+        <v>41</v>
+      </c>
+      <c r="C4" s="42">
+        <v>764564.3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="38">
+        <v>5</v>
+      </c>
+      <c r="B5" s="40" t="s">
         <v>42</v>
       </c>
-      <c r="C2" s="46">
-        <v>202983.2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="42">
-        <v>3</v>
-      </c>
-      <c r="B3" s="44" t="s">
+      <c r="C5" s="41">
+        <v>1157471.3999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="38">
+        <v>6</v>
+      </c>
+      <c r="B6" s="39" t="s">
         <v>43</v>
       </c>
-      <c r="C3" s="45">
-        <v>556606.69999999995</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="42">
-        <v>4</v>
-      </c>
-      <c r="B4" s="43" t="s">
+      <c r="C6" s="42">
+        <v>1283338</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="38">
+        <v>7</v>
+      </c>
+      <c r="B7" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="C4" s="46">
-        <v>764564.3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="42">
-        <v>5</v>
-      </c>
-      <c r="B5" s="44" t="s">
+      <c r="C7" s="41">
+        <v>4152011</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="38">
+        <v>8</v>
+      </c>
+      <c r="B8" s="39" t="s">
         <v>45</v>
       </c>
-      <c r="C5" s="45">
-        <v>1157471.3999999999</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="42">
-        <v>6</v>
-      </c>
-      <c r="B6" s="43" t="s">
+      <c r="C8" s="42">
+        <v>6216342.5999999996</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="38">
+        <v>9</v>
+      </c>
+      <c r="B9" s="40" t="s">
         <v>46</v>
       </c>
-      <c r="C6" s="46">
-        <v>1283338</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="42">
-        <v>7</v>
-      </c>
-      <c r="B7" s="44" t="s">
+      <c r="C9" s="41">
+        <v>10634054.4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="38">
+        <v>10</v>
+      </c>
+      <c r="B10" s="39" t="s">
         <v>47</v>
       </c>
-      <c r="C7" s="45">
-        <v>4152011</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="42">
-        <v>8</v>
-      </c>
-      <c r="B8" s="43" t="s">
+      <c r="C10" s="42">
+        <v>16517018.300000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="38">
+        <v>11</v>
+      </c>
+      <c r="B11" s="40" t="s">
         <v>48</v>
       </c>
-      <c r="C8" s="46">
-        <v>6216342.5999999996</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="42">
-        <v>9</v>
-      </c>
-      <c r="B9" s="44" t="s">
+      <c r="C11" s="41">
+        <v>25152514.800000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="38">
+        <v>12</v>
+      </c>
+      <c r="B12" s="39" t="s">
         <v>49</v>
       </c>
-      <c r="C9" s="45">
-        <v>10634054.4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="42">
-        <v>10</v>
-      </c>
-      <c r="B10" s="43" t="s">
+      <c r="C12" s="42">
+        <v>62111788.200000003</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="38">
+        <v>13</v>
+      </c>
+      <c r="B13" s="40" t="s">
         <v>50</v>
       </c>
-      <c r="C10" s="46">
-        <v>16517018.300000001</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="42">
-        <v>11</v>
-      </c>
-      <c r="B11" s="44" t="s">
+      <c r="C13" s="41">
+        <v>80894367</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="38">
+        <v>14</v>
+      </c>
+      <c r="B14" s="39" t="s">
         <v>51</v>
       </c>
-      <c r="C11" s="45">
-        <v>25152514.800000001</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="42">
-        <v>12</v>
-      </c>
-      <c r="B12" s="43" t="s">
-        <v>52</v>
-      </c>
-      <c r="C12" s="46">
-        <v>62111788.200000003</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="42">
-        <v>13</v>
-      </c>
-      <c r="B13" s="44" t="s">
-        <v>53</v>
-      </c>
-      <c r="C13" s="45">
-        <v>80894367</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="42">
-        <v>14</v>
-      </c>
-      <c r="B14" s="43" t="s">
-        <v>54</v>
-      </c>
-      <c r="C14" s="46">
+      <c r="C14" s="42">
         <v>168704571.80000001</v>
       </c>
     </row>
@@ -1762,14 +1789,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" s="4" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="37" t="s">
-        <v>33</v>
-      </c>
-      <c r="B1" s="37"/>
+      <c r="A1" s="45" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="45"/>
     </row>
     <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="37"/>
-      <c r="B2" s="37"/>
+      <c r="A2" s="45"/>
+      <c r="B2" s="45"/>
     </row>
     <row r="3" spans="1:3" ht="4.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="12"/>
@@ -1777,13 +1804,13 @@
     </row>
     <row r="4" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="17.25" x14ac:dyDescent="0.25">
@@ -1791,10 +1818,10 @@
         <v>1</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="17.25" x14ac:dyDescent="0.25">
@@ -1802,10 +1829,10 @@
         <v>2</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="17.25" x14ac:dyDescent="0.25">
@@ -1813,10 +1840,10 @@
         <v>3</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -1842,27 +1869,25 @@
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8.85546875" style="1"/>
     <col min="2" max="2" width="56.85546875" customWidth="1"/>
-    <col min="3" max="3" width="17.42578125" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" customWidth="1"/>
-    <col min="5" max="5" width="17.140625" customWidth="1"/>
+    <col min="3" max="5" width="35.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="38" t="s">
-        <v>34</v>
-      </c>
-      <c r="B1" s="38"/>
+      <c r="A1" s="46" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="46"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="38"/>
-      <c r="B2" s="38"/>
+      <c r="A2" s="46"/>
+      <c r="B2" s="46"/>
     </row>
     <row r="3" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="10"/>
@@ -1870,19 +1895,19 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B4" s="25" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C4" s="26" t="s">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="D4" s="26" t="s">
-        <v>1</v>
+        <v>61</v>
       </c>
       <c r="E4" s="27" t="s">
-        <v>2</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -1890,117 +1915,177 @@
         <v>1</v>
       </c>
       <c r="B5" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="23"/>
-      <c r="D5" s="23"/>
-      <c r="E5" s="23"/>
+        <v>2</v>
+      </c>
+      <c r="C5" s="23">
+        <v>2303</v>
+      </c>
+      <c r="D5" s="23">
+        <v>992</v>
+      </c>
+      <c r="E5" s="23">
+        <v>38372</v>
+      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="28">
         <v>2</v>
       </c>
       <c r="B6" s="29" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="23"/>
-      <c r="D6" s="23"/>
-      <c r="E6" s="23"/>
+        <v>3</v>
+      </c>
+      <c r="C6" s="23">
+        <v>75464027</v>
+      </c>
+      <c r="D6" s="23">
+        <v>148288951</v>
+      </c>
+      <c r="E6" s="23">
+        <v>100160893</v>
+      </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="28">
         <v>3</v>
       </c>
       <c r="B7" s="29" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="23"/>
-      <c r="D7" s="23"/>
-      <c r="E7" s="23"/>
+        <v>4</v>
+      </c>
+      <c r="C7" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="D7" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="E7" s="23" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="28">
         <v>4</v>
       </c>
       <c r="B8" s="29" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" s="23"/>
-      <c r="D8" s="23"/>
-      <c r="E8" s="23"/>
+        <v>5</v>
+      </c>
+      <c r="C8" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="D8" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="E8" s="23" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="28">
         <v>5</v>
       </c>
       <c r="B9" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="23"/>
-      <c r="D9" s="23"/>
-      <c r="E9" s="23"/>
+        <v>6</v>
+      </c>
+      <c r="C9" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="D9" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="E9" s="23" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="28">
         <v>6</v>
       </c>
       <c r="B10" s="29" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" s="23"/>
-      <c r="D10" s="23"/>
-      <c r="E10" s="23"/>
+        <v>7</v>
+      </c>
+      <c r="C10" s="23">
+        <v>580</v>
+      </c>
+      <c r="D10" s="23">
+        <v>332</v>
+      </c>
+      <c r="E10" s="23">
+        <v>8768</v>
+      </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="28">
         <v>7</v>
       </c>
       <c r="B11" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" s="23"/>
-      <c r="D11" s="23"/>
-      <c r="E11" s="23"/>
+        <v>8</v>
+      </c>
+      <c r="C11" s="23">
+        <v>481</v>
+      </c>
+      <c r="D11" s="23">
+        <v>193</v>
+      </c>
+      <c r="E11" s="23">
+        <v>8270</v>
+      </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="28">
         <v>8</v>
       </c>
       <c r="B12" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12" s="23"/>
-      <c r="D12" s="23"/>
-      <c r="E12" s="23"/>
+        <v>9</v>
+      </c>
+      <c r="C12" s="23">
+        <v>466</v>
+      </c>
+      <c r="D12" s="23">
+        <v>154</v>
+      </c>
+      <c r="E12" s="23">
+        <v>7825</v>
+      </c>
     </row>
     <row r="13" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="28">
         <v>9</v>
       </c>
       <c r="B13" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="C13" s="23"/>
-      <c r="D13" s="23"/>
-      <c r="E13" s="23"/>
+        <v>10</v>
+      </c>
+      <c r="C13" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="D13" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="E13" s="23" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="14" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="28">
         <v>10</v>
       </c>
       <c r="B14" s="30" t="s">
-        <v>14</v>
-      </c>
-      <c r="C14" s="23"/>
-      <c r="D14" s="23"/>
-      <c r="E14" s="23"/>
+        <v>11</v>
+      </c>
+      <c r="C14" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="D14" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="E14" s="23" t="s">
+        <v>65</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:B2"/>
   </mergeCells>
   <conditionalFormatting sqref="B5">
-    <cfRule type="colorScale" priority="3">
+    <cfRule type="colorScale" priority="12">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -2008,7 +2093,7 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="4">
+    <cfRule type="colorScale" priority="13">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -2019,7 +2104,113 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A5:E14">
+  <conditionalFormatting sqref="A10:E14 A8:B9 A7:C7 A5:B6">
+    <cfRule type="colorScale" priority="11">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A5:A14">
+    <cfRule type="colorScale" priority="10">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C8">
+    <cfRule type="colorScale" priority="9">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C9">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D7">
+    <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D8">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D9">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E7">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E8">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E9">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -2031,13 +2222,15 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A5:A14">
+  <conditionalFormatting sqref="C5:E6">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
         <cfvo type="max"/>
-        <color rgb="FFFFEF9C"/>
         <color rgb="FF63BE7B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
   </conditionalFormatting>
